--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/PENNSYLVANIA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/PENNSYLVANIA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D930"/>
+  <dimension ref="A1:D924"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C3">
@@ -628,7 +628,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C19">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C22">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C24">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C46">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C49">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C53">
@@ -1387,7 +1387,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C77">
@@ -1605,7 +1605,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1914,12 +1914,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C116">
@@ -1932,7 +1932,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C117">
@@ -1945,7 +1945,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C118">
@@ -1997,7 +1997,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C122">
@@ -2114,7 +2114,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C131">
@@ -2179,7 +2179,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C136">
@@ -2231,7 +2231,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C140">
@@ -2400,7 +2400,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C153">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C161">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C162">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C164">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C171">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C182">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C187">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C188">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C189">
@@ -3029,7 +3029,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C201">
@@ -3042,7 +3042,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C202">
@@ -3055,7 +3055,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C203">
@@ -3120,7 +3120,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C208">
@@ -3172,7 +3172,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C212">
@@ -3289,7 +3289,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C221">
@@ -3328,7 +3328,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C224">
@@ -3393,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C229">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C234">
@@ -3489,7 +3489,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C236">
@@ -3528,7 +3528,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C239">
@@ -3541,7 +3541,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C240">
@@ -3567,7 +3567,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C242">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C243">
@@ -3619,7 +3619,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C246">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C247">
@@ -3645,7 +3645,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C248">
@@ -3658,7 +3658,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C249">
@@ -3710,7 +3710,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C253">
@@ -3749,7 +3749,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C256">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C257">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C263">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C264">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C267">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C269">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C283">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C285">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C287">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C291">
@@ -4352,7 +4352,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C302">
@@ -4391,7 +4391,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C305">
@@ -4456,7 +4456,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C310">
@@ -4508,7 +4508,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C314">
@@ -4534,7 +4534,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C316">
@@ -4547,7 +4547,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C317">
@@ -4560,7 +4560,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C318">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C323">
@@ -4638,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C324">
@@ -4651,7 +4651,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C325">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C327">
@@ -4690,7 +4690,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C328">
@@ -4747,7 +4747,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C332">
@@ -4773,7 +4773,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C334">
@@ -4838,7 +4838,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C339">
@@ -4903,7 +4903,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C344">
@@ -4968,7 +4968,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C349">
@@ -5007,7 +5007,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C352">
@@ -5020,7 +5020,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C353">
@@ -5046,7 +5046,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C355">
@@ -5150,7 +5150,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C363">
@@ -5350,7 +5350,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C378">
@@ -5883,7 +5883,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C419">
@@ -6200,7 +6200,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C443">
@@ -6226,7 +6226,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C445">
@@ -6278,7 +6278,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C449">
@@ -6343,7 +6343,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C454">
@@ -6400,7 +6400,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C458">
@@ -6561,7 +6561,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C470">
@@ -6592,7 +6592,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C472">
@@ -6644,7 +6644,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C476">
@@ -6670,7 +6670,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C478">
@@ -6683,7 +6683,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C479">
@@ -6696,7 +6696,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C480">
@@ -6709,7 +6709,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C481">
@@ -6722,7 +6722,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C482">
@@ -6735,7 +6735,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C483">
@@ -6748,7 +6748,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C484">
@@ -6813,7 +6813,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C489">
@@ -6852,7 +6852,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C492">
@@ -6865,7 +6865,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C493">
@@ -6878,7 +6878,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C494">
@@ -6891,7 +6891,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C495">
@@ -6904,7 +6904,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C496">
@@ -7138,7 +7138,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C514">
@@ -7190,7 +7190,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C518">
@@ -7242,7 +7242,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C522">
@@ -7255,7 +7255,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C523">
@@ -7307,7 +7307,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C527">
@@ -7385,7 +7385,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C533">
@@ -7463,7 +7463,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C539">
@@ -7606,7 +7606,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C550">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C554">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C555">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C556">
@@ -8009,7 +8009,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C581">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C590">
@@ -8139,7 +8139,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C591">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C592">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C594">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C595">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C597">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C598">
@@ -8404,7 +8404,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C611">
@@ -8437,7 +8437,7 @@
         <v>51</v>
       </c>
       <c r="D613">
-        <v>0.009766373037150517</v>
+        <v>0.009766373037150515</v>
       </c>
     </row>
     <row r="614">
@@ -8495,7 +8495,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C618">
@@ -8586,7 +8586,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C625">
@@ -8599,7 +8599,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C626">
@@ -8716,7 +8716,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C635">
@@ -8729,7 +8729,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C636">
@@ -8768,7 +8768,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C639">
@@ -8794,7 +8794,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C641">
@@ -8820,7 +8820,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C643">
@@ -8911,7 +8911,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C650">
@@ -8989,7 +8989,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C656">
@@ -9197,7 +9197,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C672">
@@ -9236,7 +9236,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C675">
@@ -9249,7 +9249,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C676">
@@ -9314,7 +9314,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C681">
@@ -9405,7 +9405,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C688">
@@ -9470,7 +9470,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C693">
@@ -9483,7 +9483,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C694">
@@ -9496,7 +9496,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C695">
@@ -9535,7 +9535,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C698">
@@ -9665,7 +9665,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C708">
@@ -9826,14 +9826,14 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C720">
         <v>51</v>
       </c>
       <c r="D720">
-        <v>0.009766373037150517</v>
+        <v>0.009766373037150515</v>
       </c>
     </row>
     <row r="721">
@@ -9878,7 +9878,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C724">
@@ -9891,7 +9891,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C725">
@@ -9917,7 +9917,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C727">
@@ -9956,7 +9956,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C730">
@@ -10083,7 +10083,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C739">
@@ -10109,7 +10109,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C741">
@@ -10200,7 +10200,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C748">
@@ -10213,7 +10213,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C749">
@@ -10278,7 +10278,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C754">
@@ -10797,7 +10797,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C792">
@@ -10888,7 +10888,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C799">
@@ -10953,7 +10953,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C804">
@@ -10992,7 +10992,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C807">
@@ -11192,7 +11192,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C822">
@@ -11257,7 +11257,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C827">
@@ -11361,7 +11361,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C835">
@@ -11491,7 +11491,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C845">
@@ -11530,7 +11530,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C848">
@@ -11543,7 +11543,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C849">
@@ -11621,7 +11621,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C855">
@@ -11660,7 +11660,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C858">
@@ -11712,7 +11712,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C862">
@@ -11764,7 +11764,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C866">
@@ -11855,7 +11855,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C873">
@@ -11881,7 +11881,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C875">
@@ -11972,7 +11972,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C882">
@@ -11985,7 +11985,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C883">
@@ -12219,7 +12219,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C901">
@@ -12437,7 +12437,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C917">
@@ -12450,7 +12450,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C918">
@@ -12536,41 +12536,6 @@
       </c>
       <c r="D924">
         <v>1</v>
-      </c>
-    </row>
-    <row r="926">
-      <c r="A926" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="927">
-      <c r="A927" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="928">
-      <c r="A928" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="929">
-      <c r="A929" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="930">
-      <c r="A930" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
